--- a/medicine/Mort/Les_Êtres_chers/Les_Êtres_chers.xlsx
+++ b/medicine/Mort/Les_Êtres_chers/Les_Êtres_chers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Êtres chers est un film québécois réalisé et scénarisé par Anne Émond sorti en 2015[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Êtres chers est un film québécois réalisé et scénarisé par Anne Émond sorti en 2015.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Leblanc se met à fabriquer des marionnettes après le décès de son père. Plusieurs années plus tard, il dirige une entreprise familiale lucrative. Entouré de sa famille, il mène une vie paisible au Bas-Saint-Laurent. Quand il apprend que son père s'était suicidé, il tombe lentement dans la mélancolie et se questionne sur son rôle de père et de mari.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Les Êtres chers
 Réalisation : Anne Émond
@@ -564,7 +580,7 @@
 Genre : drame
 Durée : 102 minutes
 Dates de sortie :
-Suisse : 12 août 2015 (première mondiale à la 68e édition du Festival international du film de Locarno)[2],[3]
+Suisse : 12 août 2015 (première mondiale à la 68e édition du Festival international du film de Locarno),
 Canada : 14 septembre 2015 (première canadienne au Festival international du film de Toronto (TIFF))
 Allemagne : 3 octobre 2015 (Festival du film de Hambourg)
 Canada : 7 octobre 2015 (Festival international du film de Vancouver (VIFF))
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maxim Gaudette : David Leblanc
@@ -648,7 +666,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,6 +685,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -674,7 +694,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_%C3%8Atres_chers</t>
+          <t>Les_Êtres_chers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,7 +712,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2015 : prix La Vague du meilleur long métrage de fiction canadien (Festival international du cinéma francophone en Acadie)
 2015 : prix La Vague Coup de cœur du public (Festival international du cinéma francophone en Acadie)
